--- a/example/info/02 screened properties info.xlsx
+++ b/example/info/02 screened properties info.xlsx
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>test id</t>
+          <t>test_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>old filename</t>
+          <t>old_filename</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>test type</t>
+          <t>test_type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>A_0 (mm)</t>
+          <t>A_0_(mm)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>h_0 (mm)</t>
+          <t>h_0_(mm)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -796,7 +796,7 @@
         <v>35.2190159803605</v>
       </c>
       <c r="N6" t="n">
-        <v>59661.03241166723</v>
+        <v>59661.03241166724</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>47.3625404782615</v>
       </c>
       <c r="N72" t="n">
-        <v>42175.08103243844</v>
+        <v>42175.08103243845</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>33.316765619273</v>
       </c>
       <c r="N86" t="n">
-        <v>53428.72227290324</v>
+        <v>53428.72227290325</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
